--- a/실무_엑셀_예제_파일/Chapter04/04-013.xlsx
+++ b/실무_엑셀_예제_파일/Chapter04/04-013.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\9. 내 드롭박스\@. #오빠두\# 홈페이지 공유파일\1. 엑셀 - 무료강의\진짜쓰는 실무엑셀\Chapter04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel\실무_엑셀_예제_파일\Chapter04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8525130D-DFB0-4E31-A902-254AF925F90C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2074F59F-2ABC-48BA-8DF1-11A21FDE4D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{0AB4CD3D-78CF-43D9-BA3F-47745F891565}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{0AB4CD3D-78CF-43D9-BA3F-47745F891565}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -302,9 +302,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -316,6 +313,9 @@
     </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -633,2083 +633,2085 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F4D690-1145-4628-B999-3C79AD84C861}">
   <dimension ref="B1:F124"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="130" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="1.25" customWidth="1"/>
     <col min="2" max="2" width="11" style="1" customWidth="1"/>
     <col min="3" max="3" width="27" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="4" max="4" width="14.08203125" customWidth="1"/>
     <col min="5" max="6" width="10" customWidth="1"/>
     <col min="7" max="7" width="1.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="9.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:6" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="2" t="s">
+    <row r="1" spans="2:6" ht="9.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:6" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="2:6" ht="9.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="2:6" ht="9.65" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="5" t="s">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>164700</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>194040</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="5" t="s">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>270000</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="5" t="s">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>331800</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="5" t="s">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>694260</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="5" t="s">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>270000</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="5" t="s">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>164700</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="5" t="s">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B12" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>270000</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="5" t="s">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>149520</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="5" t="s">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B14" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>228240</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="5" t="s">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B15" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <v>366000</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="5" t="s">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B16" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <v>391800</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="5">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="5" t="s">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B17" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <v>220000</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="5">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="5" t="s">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B18" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <v>277650</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="5">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="5" t="s">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B19" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
         <v>726600</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="5">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="5" t="s">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B20" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="5">
         <v>418800</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="5">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="5" t="s">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B21" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <v>190200</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="5">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="5" t="s">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B22" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <v>728000</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="5">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="5" t="s">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B23" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="5">
         <v>169500</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="5">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="5" t="s">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B24" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="5">
         <v>236400</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="5">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="5" t="s">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B25" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <v>164700</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="5">
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="5" t="s">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B26" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="5">
         <v>194040</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="5">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="5" t="s">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B27" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="5">
         <v>270000</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="5">
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="5" t="s">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B28" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="5">
         <v>331800</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="5">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="5" t="s">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B29" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="5">
         <v>694260</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="5">
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="5" t="s">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B30" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="5">
         <v>270000</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="5" t="s">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B31" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="5">
         <v>164700</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="5">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="5" t="s">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B32" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="5">
         <v>270000</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32" s="5">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="5" t="s">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B33" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="5">
         <v>149520</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="5">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="5" t="s">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B34" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="5">
         <v>228240</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="5">
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B35" s="5" t="s">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B35" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="5">
         <v>366000</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="5">
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" s="5" t="s">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B36" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="5">
         <v>391800</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="5">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B37" s="5" t="s">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B37" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="5">
         <v>220000</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37" s="5">
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B38" s="5" t="s">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B38" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="5">
         <v>277650</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38" s="5">
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B39" s="5" t="s">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B39" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="5">
         <v>726600</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B40" s="5" t="s">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B40" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="5">
         <v>418800</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F40" s="5">
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B41" s="5" t="s">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B41" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41" s="5">
         <v>190200</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41" s="5">
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B42" s="5" t="s">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B42" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42" s="5">
         <v>728000</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F42" s="5">
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B43" s="5" t="s">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B43" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43" s="5">
         <v>169500</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F43" s="5">
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B44" s="5" t="s">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B44" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44" s="5">
         <v>236400</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44" s="5">
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B45" s="5" t="s">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B45" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E45" s="5">
         <v>164700</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F45" s="5">
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B46" s="5" t="s">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B46" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E46" s="5">
         <v>194040</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F46" s="5">
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B47" s="5" t="s">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B47" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E47" s="5">
         <v>270000</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F47" s="5">
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B48" s="5" t="s">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B48" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E48" s="5">
         <v>331800</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F48" s="5">
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B49" s="5" t="s">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B49" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D49" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E49" s="5">
         <v>694260</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F49" s="5">
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B50" s="5" t="s">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B50" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E50" s="5">
         <v>270000</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F50" s="5">
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B51" s="5" t="s">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B51" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D51" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E51" s="5">
         <v>164700</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F51" s="5">
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B52" s="5" t="s">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B52" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D52" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E52" s="5">
         <v>270000</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F52" s="5">
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B53" s="5" t="s">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B53" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C53" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D53" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E53" s="5">
         <v>149520</v>
       </c>
-      <c r="F53" s="6">
+      <c r="F53" s="5">
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B54" s="5" t="s">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B54" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D54" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E54" s="6">
+      <c r="E54" s="5">
         <v>228240</v>
       </c>
-      <c r="F54" s="6">
+      <c r="F54" s="5">
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B55" s="5" t="s">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B55" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C55" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D55" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E55" s="6">
+      <c r="E55" s="5">
         <v>366000</v>
       </c>
-      <c r="F55" s="6">
+      <c r="F55" s="5">
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B56" s="5" t="s">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B56" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D56" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E56" s="6">
+      <c r="E56" s="5">
         <v>391800</v>
       </c>
-      <c r="F56" s="6">
+      <c r="F56" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B57" s="5" t="s">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B57" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D57" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E57" s="6">
+      <c r="E57" s="5">
         <v>220000</v>
       </c>
-      <c r="F57" s="6">
+      <c r="F57" s="5">
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B58" s="5" t="s">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B58" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C58" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D58" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E58" s="6">
+      <c r="E58" s="5">
         <v>277650</v>
       </c>
-      <c r="F58" s="6">
+      <c r="F58" s="5">
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B59" s="5" t="s">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B59" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C59" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="D59" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E59" s="6">
+      <c r="E59" s="5">
         <v>726600</v>
       </c>
-      <c r="F59" s="6">
+      <c r="F59" s="5">
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B60" s="5" t="s">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B60" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C60" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D60" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E60" s="6">
+      <c r="E60" s="5">
         <v>418800</v>
       </c>
-      <c r="F60" s="6">
+      <c r="F60" s="5">
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B61" s="5" t="s">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B61" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C61" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D61" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E61" s="6">
+      <c r="E61" s="5">
         <v>190200</v>
       </c>
-      <c r="F61" s="6">
+      <c r="F61" s="5">
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B62" s="5" t="s">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B62" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C62" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D62" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E62" s="6">
+      <c r="E62" s="5">
         <v>728000</v>
       </c>
-      <c r="F62" s="6">
+      <c r="F62" s="5">
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B63" s="5" t="s">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B63" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C63" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D63" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E63" s="6">
+      <c r="E63" s="5">
         <v>169500</v>
       </c>
-      <c r="F63" s="6">
+      <c r="F63" s="5">
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B64" s="5" t="s">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B64" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C64" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="D64" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E64" s="6">
+      <c r="E64" s="5">
         <v>236400</v>
       </c>
-      <c r="F64" s="6">
+      <c r="F64" s="5">
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B65" s="5" t="s">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B65" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C65" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="D65" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E65" s="6">
+      <c r="E65" s="5">
         <v>164700</v>
       </c>
-      <c r="F65" s="6">
+      <c r="F65" s="5">
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B66" s="5" t="s">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B66" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D66" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E66" s="6">
+      <c r="E66" s="5">
         <v>194040</v>
       </c>
-      <c r="F66" s="6">
+      <c r="F66" s="5">
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B67" s="5" t="s">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B67" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C67" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="D67" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E67" s="6">
+      <c r="E67" s="5">
         <v>270000</v>
       </c>
-      <c r="F67" s="6">
+      <c r="F67" s="5">
         <v>48</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B68" s="5" t="s">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B68" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C68" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="D68" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E68" s="6">
+      <c r="E68" s="5">
         <v>331800</v>
       </c>
-      <c r="F68" s="6">
+      <c r="F68" s="5">
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B69" s="5" t="s">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B69" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C69" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="D69" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E69" s="6">
+      <c r="E69" s="5">
         <v>694260</v>
       </c>
-      <c r="F69" s="6">
+      <c r="F69" s="5">
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B70" s="5" t="s">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B70" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C70" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="D70" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E70" s="6">
+      <c r="E70" s="5">
         <v>270000</v>
       </c>
-      <c r="F70" s="6">
+      <c r="F70" s="5">
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B71" s="5" t="s">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B71" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C71" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="D71" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E71" s="6">
+      <c r="E71" s="5">
         <v>164700</v>
       </c>
-      <c r="F71" s="6">
+      <c r="F71" s="5">
         <v>48</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B72" s="5" t="s">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B72" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C72" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="D72" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E72" s="6">
+      <c r="E72" s="5">
         <v>270000</v>
       </c>
-      <c r="F72" s="6">
+      <c r="F72" s="5">
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B73" s="5" t="s">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B73" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C73" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D73" s="5" t="s">
+      <c r="D73" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E73" s="6">
+      <c r="E73" s="5">
         <v>149520</v>
       </c>
-      <c r="F73" s="6">
+      <c r="F73" s="5">
         <v>44</v>
       </c>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B74" s="5" t="s">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B74" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C74" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D74" s="5" t="s">
+      <c r="D74" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E74" s="6">
+      <c r="E74" s="5">
         <v>228240</v>
       </c>
-      <c r="F74" s="6">
+      <c r="F74" s="5">
         <v>47</v>
       </c>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B75" s="5" t="s">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B75" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C75" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="D75" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E75" s="6">
+      <c r="E75" s="5">
         <v>366000</v>
       </c>
-      <c r="F75" s="6">
+      <c r="F75" s="5">
         <v>37</v>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B76" s="5" t="s">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B76" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C76" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="D76" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E76" s="6">
+      <c r="E76" s="5">
         <v>391800</v>
       </c>
-      <c r="F76" s="6">
+      <c r="F76" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B77" s="5" t="s">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B77" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C77" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D77" s="5" t="s">
+      <c r="D77" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E77" s="6">
+      <c r="E77" s="5">
         <v>220000</v>
       </c>
-      <c r="F77" s="6">
+      <c r="F77" s="5">
         <v>32</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B78" s="5" t="s">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B78" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="C78" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D78" s="5" t="s">
+      <c r="D78" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E78" s="6">
+      <c r="E78" s="5">
         <v>277650</v>
       </c>
-      <c r="F78" s="6">
+      <c r="F78" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B79" s="5" t="s">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B79" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="C79" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D79" s="5" t="s">
+      <c r="D79" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E79" s="6">
+      <c r="E79" s="5">
         <v>726600</v>
       </c>
-      <c r="F79" s="6">
+      <c r="F79" s="5">
         <v>43</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B80" s="5" t="s">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B80" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="C80" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D80" s="5" t="s">
+      <c r="D80" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E80" s="6">
+      <c r="E80" s="5">
         <v>418800</v>
       </c>
-      <c r="F80" s="6">
+      <c r="F80" s="5">
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B81" s="5" t="s">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B81" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="C81" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D81" s="5" t="s">
+      <c r="D81" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E81" s="6">
+      <c r="E81" s="5">
         <v>190200</v>
       </c>
-      <c r="F81" s="6">
+      <c r="F81" s="5">
         <v>30</v>
       </c>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B82" s="5" t="s">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B82" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C82" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D82" s="5" t="s">
+      <c r="D82" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E82" s="6">
+      <c r="E82" s="5">
         <v>728000</v>
       </c>
-      <c r="F82" s="6">
+      <c r="F82" s="5">
         <v>29</v>
       </c>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B83" s="5" t="s">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B83" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="C83" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D83" s="5" t="s">
+      <c r="D83" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E83" s="6">
+      <c r="E83" s="5">
         <v>169500</v>
       </c>
-      <c r="F83" s="6">
+      <c r="F83" s="5">
         <v>22</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B84" s="5" t="s">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B84" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="C84" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D84" s="5" t="s">
+      <c r="D84" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E84" s="6">
+      <c r="E84" s="5">
         <v>236400</v>
       </c>
-      <c r="F84" s="6">
+      <c r="F84" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B85" s="5" t="s">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B85" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="C85" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D85" s="5" t="s">
+      <c r="D85" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E85" s="6">
+      <c r="E85" s="5">
         <v>164700</v>
       </c>
-      <c r="F85" s="6">
+      <c r="F85" s="5">
         <v>35</v>
       </c>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B86" s="5" t="s">
+    <row r="86" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B86" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="C86" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D86" s="5" t="s">
+      <c r="D86" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E86" s="6">
+      <c r="E86" s="5">
         <v>194040</v>
       </c>
-      <c r="F86" s="6">
+      <c r="F86" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B87" s="5" t="s">
+    <row r="87" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B87" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="C87" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D87" s="5" t="s">
+      <c r="D87" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E87" s="6">
+      <c r="E87" s="5">
         <v>270000</v>
       </c>
-      <c r="F87" s="6">
+      <c r="F87" s="5">
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B88" s="5" t="s">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B88" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="C88" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D88" s="5" t="s">
+      <c r="D88" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E88" s="6">
+      <c r="E88" s="5">
         <v>331800</v>
       </c>
-      <c r="F88" s="6">
+      <c r="F88" s="5">
         <v>27</v>
       </c>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B89" s="5" t="s">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B89" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C89" s="5" t="s">
+      <c r="C89" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D89" s="5" t="s">
+      <c r="D89" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E89" s="6">
+      <c r="E89" s="5">
         <v>694260</v>
       </c>
-      <c r="F89" s="6">
+      <c r="F89" s="5">
         <v>47</v>
       </c>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B90" s="5" t="s">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B90" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="C90" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D90" s="5" t="s">
+      <c r="D90" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E90" s="6">
+      <c r="E90" s="5">
         <v>270000</v>
       </c>
-      <c r="F90" s="6">
+      <c r="F90" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B91" s="5" t="s">
+    <row r="91" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B91" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C91" s="5" t="s">
+      <c r="C91" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D91" s="5" t="s">
+      <c r="D91" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E91" s="6">
+      <c r="E91" s="5">
         <v>164700</v>
       </c>
-      <c r="F91" s="6">
+      <c r="F91" s="5">
         <v>22</v>
       </c>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B92" s="5" t="s">
+    <row r="92" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B92" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C92" s="5" t="s">
+      <c r="C92" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D92" s="5" t="s">
+      <c r="D92" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E92" s="6">
+      <c r="E92" s="5">
         <v>270000</v>
       </c>
-      <c r="F92" s="6">
+      <c r="F92" s="5">
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B93" s="5" t="s">
+    <row r="93" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B93" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C93" s="5" t="s">
+      <c r="C93" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D93" s="5" t="s">
+      <c r="D93" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E93" s="6">
+      <c r="E93" s="5">
         <v>149520</v>
       </c>
-      <c r="F93" s="6">
+      <c r="F93" s="5">
         <v>44</v>
       </c>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B94" s="5" t="s">
+    <row r="94" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B94" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C94" s="5" t="s">
+      <c r="C94" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D94" s="5" t="s">
+      <c r="D94" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E94" s="6">
+      <c r="E94" s="5">
         <v>228240</v>
       </c>
-      <c r="F94" s="6">
+      <c r="F94" s="5">
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B95" s="5" t="s">
+    <row r="95" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B95" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C95" s="5" t="s">
+      <c r="C95" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D95" s="5" t="s">
+      <c r="D95" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E95" s="6">
+      <c r="E95" s="5">
         <v>366000</v>
       </c>
-      <c r="F95" s="6">
+      <c r="F95" s="5">
         <v>48</v>
       </c>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B96" s="5" t="s">
+    <row r="96" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B96" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C96" s="5" t="s">
+      <c r="C96" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D96" s="5" t="s">
+      <c r="D96" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E96" s="6">
+      <c r="E96" s="5">
         <v>391800</v>
       </c>
-      <c r="F96" s="6">
+      <c r="F96" s="5">
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B97" s="5" t="s">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B97" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C97" s="5" t="s">
+      <c r="C97" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D97" s="5" t="s">
+      <c r="D97" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E97" s="6">
+      <c r="E97" s="5">
         <v>220000</v>
       </c>
-      <c r="F97" s="6">
+      <c r="F97" s="5">
         <v>35</v>
       </c>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B98" s="5" t="s">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B98" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C98" s="5" t="s">
+      <c r="C98" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D98" s="5" t="s">
+      <c r="D98" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E98" s="6">
+      <c r="E98" s="5">
         <v>277650</v>
       </c>
-      <c r="F98" s="6">
+      <c r="F98" s="5">
         <v>33</v>
       </c>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B99" s="5" t="s">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B99" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C99" s="5" t="s">
+      <c r="C99" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D99" s="5" t="s">
+      <c r="D99" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E99" s="6">
+      <c r="E99" s="5">
         <v>726600</v>
       </c>
-      <c r="F99" s="6">
+      <c r="F99" s="5">
         <v>34</v>
       </c>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B100" s="5" t="s">
+    <row r="100" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B100" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C100" s="5" t="s">
+      <c r="C100" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D100" s="5" t="s">
+      <c r="D100" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E100" s="6">
+      <c r="E100" s="5">
         <v>418800</v>
       </c>
-      <c r="F100" s="6">
+      <c r="F100" s="5">
         <v>32</v>
       </c>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B101" s="5" t="s">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B101" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C101" s="5" t="s">
+      <c r="C101" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D101" s="5" t="s">
+      <c r="D101" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E101" s="6">
+      <c r="E101" s="5">
         <v>190200</v>
       </c>
-      <c r="F101" s="6">
+      <c r="F101" s="5">
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B102" s="5" t="s">
+    <row r="102" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B102" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C102" s="5" t="s">
+      <c r="C102" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D102" s="5" t="s">
+      <c r="D102" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E102" s="6">
+      <c r="E102" s="5">
         <v>728000</v>
       </c>
-      <c r="F102" s="6">
+      <c r="F102" s="5">
         <v>33</v>
       </c>
     </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B103" s="5" t="s">
+    <row r="103" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B103" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C103" s="5" t="s">
+      <c r="C103" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D103" s="5" t="s">
+      <c r="D103" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E103" s="6">
+      <c r="E103" s="5">
         <v>169500</v>
       </c>
-      <c r="F103" s="6">
+      <c r="F103" s="5">
         <v>38</v>
       </c>
     </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B104" s="5" t="s">
+    <row r="104" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B104" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C104" s="5" t="s">
+      <c r="C104" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D104" s="5" t="s">
+      <c r="D104" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E104" s="6">
+      <c r="E104" s="5">
         <v>236400</v>
       </c>
-      <c r="F104" s="6">
+      <c r="F104" s="5">
         <v>31</v>
       </c>
     </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B105" s="5" t="s">
+    <row r="105" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B105" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C105" s="5" t="s">
+      <c r="C105" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D105" s="5" t="s">
+      <c r="D105" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E105" s="6">
+      <c r="E105" s="5">
         <v>164700</v>
       </c>
-      <c r="F105" s="6">
+      <c r="F105" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B106" s="5" t="s">
+    <row r="106" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B106" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C106" s="5" t="s">
+      <c r="C106" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D106" s="5" t="s">
+      <c r="D106" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E106" s="6">
+      <c r="E106" s="5">
         <v>194040</v>
       </c>
-      <c r="F106" s="6">
+      <c r="F106" s="5">
         <v>40</v>
       </c>
     </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B107" s="5" t="s">
+    <row r="107" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B107" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C107" s="5" t="s">
+      <c r="C107" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D107" s="5" t="s">
+      <c r="D107" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E107" s="6">
+      <c r="E107" s="5">
         <v>270000</v>
       </c>
-      <c r="F107" s="6">
+      <c r="F107" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B108" s="5" t="s">
+    <row r="108" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B108" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C108" s="5" t="s">
+      <c r="C108" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D108" s="5" t="s">
+      <c r="D108" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E108" s="6">
+      <c r="E108" s="5">
         <v>331800</v>
       </c>
-      <c r="F108" s="6">
+      <c r="F108" s="5">
         <v>19</v>
       </c>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B109" s="5" t="s">
+    <row r="109" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B109" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C109" s="5" t="s">
+      <c r="C109" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D109" s="5" t="s">
+      <c r="D109" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E109" s="6">
+      <c r="E109" s="5">
         <v>694260</v>
       </c>
-      <c r="F109" s="6">
+      <c r="F109" s="5">
         <v>37</v>
       </c>
     </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B110" s="5" t="s">
+    <row r="110" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B110" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C110" s="5" t="s">
+      <c r="C110" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D110" s="5" t="s">
+      <c r="D110" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E110" s="6">
+      <c r="E110" s="5">
         <v>270000</v>
       </c>
-      <c r="F110" s="6">
+      <c r="F110" s="5">
         <v>21</v>
       </c>
     </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B111" s="5" t="s">
+    <row r="111" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B111" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C111" s="5" t="s">
+      <c r="C111" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D111" s="5" t="s">
+      <c r="D111" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E111" s="6">
+      <c r="E111" s="5">
         <v>164700</v>
       </c>
-      <c r="F111" s="6">
+      <c r="F111" s="5">
         <v>39</v>
       </c>
     </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B112" s="5" t="s">
+    <row r="112" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B112" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C112" s="5" t="s">
+      <c r="C112" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D112" s="5" t="s">
+      <c r="D112" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E112" s="6">
+      <c r="E112" s="5">
         <v>270000</v>
       </c>
-      <c r="F112" s="6">
+      <c r="F112" s="5">
         <v>40</v>
       </c>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B113" s="5" t="s">
+    <row r="113" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B113" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C113" s="5" t="s">
+      <c r="C113" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D113" s="5" t="s">
+      <c r="D113" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E113" s="6">
+      <c r="E113" s="5">
         <v>149520</v>
       </c>
-      <c r="F113" s="6">
+      <c r="F113" s="5">
         <v>14</v>
       </c>
     </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B114" s="5" t="s">
+    <row r="114" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B114" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C114" s="5" t="s">
+      <c r="C114" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D114" s="5" t="s">
+      <c r="D114" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E114" s="6">
+      <c r="E114" s="5">
         <v>228240</v>
       </c>
-      <c r="F114" s="6">
+      <c r="F114" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B115" s="5" t="s">
+    <row r="115" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B115" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C115" s="5" t="s">
+      <c r="C115" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D115" s="5" t="s">
+      <c r="D115" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E115" s="6">
+      <c r="E115" s="5">
         <v>366000</v>
       </c>
-      <c r="F115" s="6">
+      <c r="F115" s="5">
         <v>35</v>
       </c>
     </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B116" s="5" t="s">
+    <row r="116" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B116" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C116" s="5" t="s">
+      <c r="C116" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D116" s="5" t="s">
+      <c r="D116" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E116" s="6">
+      <c r="E116" s="5">
         <v>391800</v>
       </c>
-      <c r="F116" s="6">
+      <c r="F116" s="5">
         <v>39</v>
       </c>
     </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B117" s="5" t="s">
+    <row r="117" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B117" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C117" s="5" t="s">
+      <c r="C117" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D117" s="5" t="s">
+      <c r="D117" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E117" s="6">
+      <c r="E117" s="5">
         <v>220000</v>
       </c>
-      <c r="F117" s="6">
+      <c r="F117" s="5">
         <v>24</v>
       </c>
     </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B118" s="5" t="s">
+    <row r="118" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B118" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C118" s="5" t="s">
+      <c r="C118" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D118" s="5" t="s">
+      <c r="D118" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E118" s="6">
+      <c r="E118" s="5">
         <v>277650</v>
       </c>
-      <c r="F118" s="6">
+      <c r="F118" s="5">
         <v>38</v>
       </c>
     </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B119" s="5" t="s">
+    <row r="119" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B119" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C119" s="5" t="s">
+      <c r="C119" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D119" s="5" t="s">
+      <c r="D119" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E119" s="6">
+      <c r="E119" s="5">
         <v>726600</v>
       </c>
-      <c r="F119" s="6">
+      <c r="F119" s="5">
         <v>23</v>
       </c>
     </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B120" s="5" t="s">
+    <row r="120" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B120" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C120" s="5" t="s">
+      <c r="C120" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D120" s="5" t="s">
+      <c r="D120" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E120" s="6">
+      <c r="E120" s="5">
         <v>418800</v>
       </c>
-      <c r="F120" s="6">
+      <c r="F120" s="5">
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B121" s="5" t="s">
+    <row r="121" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B121" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C121" s="5" t="s">
+      <c r="C121" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D121" s="5" t="s">
+      <c r="D121" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E121" s="6">
+      <c r="E121" s="5">
         <v>190200</v>
       </c>
-      <c r="F121" s="6">
+      <c r="F121" s="5">
         <v>40</v>
       </c>
     </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B122" s="5" t="s">
+    <row r="122" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B122" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C122" s="5" t="s">
+      <c r="C122" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D122" s="5" t="s">
+      <c r="D122" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E122" s="6">
+      <c r="E122" s="5">
         <v>728000</v>
       </c>
-      <c r="F122" s="6">
+      <c r="F122" s="5">
         <v>48</v>
       </c>
     </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B123" s="5" t="s">
+    <row r="123" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B123" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C123" s="5" t="s">
+      <c r="C123" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D123" s="5" t="s">
+      <c r="D123" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E123" s="6">
+      <c r="E123" s="5">
         <v>169500</v>
       </c>
-      <c r="F123" s="6">
+      <c r="F123" s="5">
         <v>31</v>
       </c>
     </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B124" s="5" t="s">
+    <row r="124" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B124" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C124" s="5" t="s">
+      <c r="C124" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D124" s="5" t="s">
+      <c r="D124" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E124" s="6">
+      <c r="E124" s="5">
         <v>236400</v>
       </c>
-      <c r="F124" s="6">
+      <c r="F124" s="5">
         <v>39</v>
       </c>
     </row>
@@ -2720,5 +2722,9 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;D/&amp;T</oddHeader>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>